--- a/Testdata/TC_58.xlsx
+++ b/Testdata/TC_58.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Hz8AAB+LCAAAAAAAAAPtW1tv28gV/iuEnhJs5SGl+NoJF7IkZ4VaViDJm3iLYkGRI5sNRaq82NbbFmixxXaLoiiyxfaKPm1RoGnQ7gLbpJf/soid9Kl/oWcuJIcUFZuOgzYLBYbDOZe5nDlzznfGJH77dOIox8QPbM+9XdFW1IpCXNOzbPfwdiUKx1VtrfK2jtunJnHuGr4xISEIK6DlBlungX27chSG0y2ETk5OVk7qK55/iGqqqqH73d2BeUQmRtV2g9BwTVJJtKyLtSo6blqTLgkNywgNrnm70hl0VprENltA6xqucUj8le0osF0SBG03tEObBFTTJ0ZImq3uu3xhem1lbUXDaI6eSm5HtmNxuYwkpws5GJYM7QnRa6q2UVU3qnVtqKlb9dWt1fqKVtt4L1ZMBPGuEYQD4h/bJiMMQmMyZerqRl3T1Prqah2jQiHoKzWAjnuO1SfHdkCsJnGcoJRFkNjAhhnCqssZU8VI0hUdXX0Kd3xjejS0Q4eUm0a/u61MXDGXtBMd73g+McF+V5rSHjnp+cKsw+kucIdHth/OWsasdF/7AfF7U2qkcqo6bnlu2HCIH+5PYa+JBa4ADD30I4LRAmaq1LIDE55tNyKWPjacQFbKMPE9z38QTA2T7ME5RrSPE9fxDAscLrSD0DaDtIM5Dr7re1PoEkbf9hxrB7oVUyxgJF13XLAxHXfb8x7ke88yMdtWtsGwqRMjjMXn6Hhw5J30XGc2iEaB6dsjYrW2Y+lCHqYnUmg3oyD0JjCLlIQ5TaLM4B+cwDwZt4hpTwznrgNWDHQ4u1kCbkShN7bDpudEEzcxZ46K78GKhuQ0WWHSxj3YXZca3XM7bizPzVzIyir0vZNkzHkGM4JEbgRm7GTzjLxwC2jx9s1z2I7QVe7YDiQIeS8katYrBkeEhIUuwTmYxsIdmnL07RkdE6OUgsEzwb2Bqmubm+tVVYOfoapusR8YOWHjtmuxB0gwa1WtRoN2Khcz8V406Y3gCB+zNeka8HIkDKtwth3DfQDUe3Z4tNeIZ1/AwXzNC+XneRgO69QxZoyc2EWm4Y5rOpFFeAzouGPmlHRufBsXsvEcaRdOtY4NdzacTSEUB/ZWCA+3K5Cct4LQh/Rf0U0vckN/RoMFRkL0Ip0gGrlsAMO5tM7YJ9+LAHXMdiLXbHrW5UezuHX2XTu8/Ay9yOcR8PIqzHo0FkZBi9CowuL8pfXNMmsK/FLiE5dMPNc2L29tMDKdvXWFhQTxqZI00ALfapGxETmAa0JIP4dpZsmRcSN4kJeRSXjfd+LgoFPUGABsNK3JigmJlUKjFdObUAICtHZvgJEsT9GBSdru4a7hHkaQf5MDmKcnoYmmjqFvuAFdTpJuc1GqWAjHB5rDAJ2f8l7ELMZPuQdcjHJyeEgmU883nC4Yxt4R+yOwBKTprhEeiRaEfYeYsZFRqppoZWcWT/wiMRa/+TLoyRDxJEdkQnQtHKCmMikN01V2wX+dpuHYI5+HnzjLFfFgw1LgFAcquriSICreAyhSIDF9i8wock0bgs5cVosZ3IFpxNEH/VsbtVW1XoOkT9uYrbhPDEdpg9eHROm4xyQIJ6C2pfRJYFvwZBvOlvIOGREbsgUzkYjXpbVlPbwTB0Q2lQbMN0vJCkAqPrQh3s4LJpxUQT8ghu/MJEG+1F3PBLnzH/3r7NePnz357Pyjhy+++MF//v7LZ//46dmjH8LD+V/+evbxL/gyuTAeGiOHsAkNtzc21Pot8LOEhKlxEUONVmSGjHZwwMBi0sai6GGNZrvTvLO7zeJJQozVeexFtJ6aeVHaHPBFsIHYlqLYE7iIPozjk2hnuFIs12l9c0yy0jJ/kSK3xfOnnz1/+qeF2sJgGcyySrHIxZhF0+bkEsxC60ZeFsRV6a2qulqt1SThnAzuQ3ENVUBip46l1zV1U63VVS2J5VbiyEVCeZboaWgcopweJzU5jkhcQG7HTOb4QzgiCZsfBakhXPSLH7/488OMlLCuoGR7gcmxfE8HQ3GDdb3XHyqD3n6/2VaG7QH1k5QnyfHOXyIsRk/OU8apXDcynG8oxKUXKkoFioWK4o0VYphHygxOonQOM85WROUDXbHL/Czv+F405TsiKaTUAskkmhRqFMQaxmP2nAs6KatAnM/17G+fFymIhbRS5JfcDcg0nOFwksQXp/bTfz778sNnT56cP/7Z2Zffz/QgxklKZvBzOE1yM3F7CHki3+Qo+N6AGfOB+r6UXwSRVhx3PdsNA11bY8WGaGFQ1Whv7H/cmUDKYx0zewE9R8HvGEH7NBQHW9/DKEuAeU4NyLZeWpYlBB7DU7v++ze/Pf/V5+efPH7x4R/PPvrD2cefPH/6uxePfs9P3fnDx+c/eSSifD4RsLnQYo+DQIVdHZgKPY0Kzd3KVx/8XHG9UAHIoUQsIn31wadSZ3SiDJykPQOkSyaSncKcqKxM9RRpKskcMnqJCgcATZrC6omESGLe1DbTQd6r0q7ouWOMG51hNQqI4gGaugkryQqnypfVEyo8pd5dV2taTXD5bOgSRkYgmf6O440AZMQMVpvnRDJaL1dIZdl4d3Z7243dVIRPoudbUMqr9IKBPuAYUtKU0gniVuxqEgW4APzMyKHXKXNi86ykZymMIXEvMW5YNPzpqsoK/2x+zEjgZuT7HBC54p57EE0BDMe3V4v57EpPwr97HKvKiDhtd1pZPrQlLiTCLJsSGJ+FJsHiYaoT0CsQDmf3qGnSJvAy14BgDnGVzZHWMeBKH9G40/Z9zy8MPiknFusCkoaIglKLJzJsTznqttK9iglxwFui7yX6XqLvJfpeou8l+v5foW9tMfrWluh7ib6/VuhbW6LvNwV9a19/9K18e7DfvXFAgm8q8OvmWwGhf6Mg1o0EtbyVPN38zqth9bJjvSHI/iomXNYByzpgWQcs64BlHSCj/triOqD2/ua6Ya2ro1HVGNfV6q01a626SchGdW18a1Tf3NCIpVmFJcL6ay0R4l0reHFn4Rwun8uu4gAv88mCPb3ukHot93gvj6wXRLyL/7aDXrJry5pvWfNdd81Xm6/5+KtBuReGICBZeqPV6u7vDtp9CEYURkhZrQTQpG9rSekwff+fD5y0RR1BTkPIh3ER8a7hRGDU/n4bI/7MwKje7O0Nho09yN7i/bFcV0U924eu55OuHQSwo69jAP6GX/t06kM1Jt6uyo4jFUnyYGDiTnuwaCgkm4xD43zFJVGTjU2DbcO3wyPowDZ7U8LfmAogKs/JJaq0sk2VlCItVvzm/4onopvHFchVa0nEqx6UCeEol63y7TiQynQklU9IKnJQUUmDMjUMeuV6BS2sMxZz4pmmua7wdqQgFRbKLaouCoUvri7yJQGjXL5gQJl8ieYLgpSEFmJ9NAfoUTHEXkCeU0ncv5BY5FUJ3ikkxgNI+BNxuIPmYSu6nndDkAzx1FdCmZcHHUgioHkQkCWhTNZG+QwtE5CUTlFB8szRUDb7IRGV0Jt8qynG/n++1kRXuchE13dfKSWZlj0eHwA6vZ9+7hAT+IzTXmiD59c5vIMkQCT5hvgm4nqdpRx8KupgeYVe9gr98nX7a7ldFw/8q4bYhVuw8WG5bxjTjOt1veMr64JblFXtBD3HEnYu91p9Ypa0A/lDTupDr/odJ/fDhu8D+qDffZX+8DL+KKNvuIclZ8OXwhTp1w0wegwObD8I79MsK5445SChHHBkdl8Xn+/e5+0DvaZxAggguXeUmWZ8qkP+Oa3n7NoTu+QnD2p89LOdgC2nUw60OuU8hRbxe1DEYST1AEl59F2IcfyroDK9cYeFCiPRpx+wBfbhUVh2Yusjg1hkpFbNEalVb1nqBj3/9aqmwW/DrNVUdZV+/iY6h6Bik5OSg6B4w6Sa7b+dRLaxHz8AAA==</t>
+          <t>9jMAAB+LCAAAAAAAAAPtW1tv48YV/iuEnxKg8pCS7ZWNWQayZG+EypZhydl1XoIRObJZU6TKi229pUCLFGmKoig2RXpFn1IU6HbRJkC628t/Cdbe7VP/Qs9cSA4pam16XaQFHBgI59xm5syZc74ZzeJ3zieudkqD0PG9+0vGsr6kUc/ybcc7ur8UR+Oasbb0jom3zi3q7pGATGgEwhpoeeHGeejcXzqOoukGQmdnZ8tnjWU/OEJ1XTfQo53ewDqmE1JzvDAinkWXUi37aq0lE7ftyQ6NiE0iIjTvL3UH3eU2dawO0HaIR45osLwZh45Hw3DLi5zIoSHTDCiJaLuz856YmFlfXls2MJqjZ5KbsePaQi4nKehSDrqlQ2dCzbpe12t6s1ZfGerNjdW1Df3e8npDfz9RTAVxj4TRgAanjsUJg4hMplxdb9ZX9Obqmn4Po1IhsJU5wMR9196np05I7TZ13bCSR5BcwJYVwayrOVPHSNGVhm4+hAcBmR4PncilVdW3/YBa4Kgb9b1Lz/qB9N9w2gPu8NgJolmHzCrbOghp0J8yb1RTNXHH96KWS4PoYAqLSm1Yc2CYURBTjBYwM6WOE1rw7Xgxtc0xcUNVKcfED/3gJJwSi+7ChkXMxpnn+sSGyIqcMHKsMDMwx8F7gT8Fk9D7pu/a22BWDrGEkZrueuBj1u+m758UreeZmAcBDwdY1AmJEvE5Oh4c+2d9z50N4lFoBc6I2p3NRLqUh9nWk9rtOIz8CYwiI2FBUygz+A+2WpGMO9RyJsTdc8GLodkAKzkCbsWRP3aitu/GEy91Z4GKH8KMhvQ8nWHaxn1YXY853fe6XiIv3FzKyivs+2dpn/MM7gSF3AqtJMjmGUXhDtCS5Zvn8BVhs9x2XKgE6loo1HxUDI4pjUpDQnAwS3rbrLaYmzPWJ0YZBUNkQngDFdKmvlaDv7o+1PUN/gc9p2y85dmZnFGvNQxFLmHi3XjSH8EWPuVzMg3gFUgYZuFuusQ7AepDJzrebSWjL+FgMeeF8vM8DJt16pIZJ6d+UWm461lubFORA7remAclG5tYxoVsPEfqwa42MfFmw9kUcm7obETwcX8JqvBGGAVQ55dMy4+9KJixZIGRFL1KJ4xHHu+AuNfWGQf0uzHAi9l27Flt375+b7bwzoHnRNcfoR8HIgNeX4V7j+XCOOxQllV4nr+2vlVlTmFQSXzi0YnvOdb1vQ1OZqO3bzCRMNlVigZaEFsdOiaxCwAmgvJzlFWWAhm3wpOijErCB4GbJAeTwcMQ8KFlT5YtKKwMAy1b/oQREMCyhwOMVHmGDiy65R31iHcUQ/1NN2CRnqYmVjqGAfFCNp203BayVLkQTja0gAGm2OX9mHtM7HIfuBgV5PCQTqZ+QNwdcIyzLddHYgko0zskOpYtSPsutRIno0w11cqPLBn4VWI8f4tpsJ0h80mByIXYXAQSzWQyGmaz3IH4ddvEdUaBSD9JlSvjwYJlwClJVGxyFUFUsgZwGoHC9G06YxA1a0g6D1kjYYgAZhnHHOyvNOureqMORZ+1MZ/xPiWutgVRH1Gt653SMJqA2oa2T0PHhi+HuBvau3REHagW3EUyX1fWVvXwdpIQ+VBaMN48JS8ApfjIgXw7L5hyMgXzkJLAnSmCYqo93wK5yx/+8+JXT188+/zy48evvvz+v//2ixd//8nFkx/Ax+Wf/3Lxyc/FNIUwHpKRS/mAhpvNpt5YgThLSZg5F3HUaMdWxGmHhxwspm0sTze80d7qth/0Nnk+SYmJusi9iB2cZn6cNQdiErwjvqQoiQQhYg6T/CTbOa6Sy012kDmleWmVv0hR+OLl889fPv/jQm3psAyUGOvrqwyL6MZVmMUw5uRSzMIOiOJYII+fxkpNX63V64pwQQbvwykaTgGpn7q22TD0db3e0I00l9tpIJcJFVnS0pAcoYKeILUFjkhDQG0nTB74Q9giKVtsBaUhQ/TLH7360+OclPSupOStwOB4vWedoaTBTe/uD7VB/2C/vaUNtwYsTjKeIieMv0ZY9p7up1xQeV5M3G9p1GM3J9oSHBaWNH+sUWIdazPYico+zAVbGVV0dEOTxVE+CPx4KlZEUcioJZJpNinVKMk1nMf9OZd0MlaJuBjrxV+/KFOQE+lkyM/c39nUJl4al5yGcxxBUvhy1372jxdfffTi2bPLpz+9+Op7OQuyn/TIDHEOu0ltpmEPKU/WmwIFPxxwZ57oHyj1RRLZiWPPd7woNI01ftiQLQyqBrPG/4+7Eyh53DD3F9ALFPwuCbfOI7mxzV2M8gQY55RAtfWzY1lKEDk88+u/fv2by19+cfnp01cf/eHi499ffPLpy+e/ffXkd2LXXT5+evnjJzLLFwsBHws77AkQqPGrA0tju1FjtVv7+sOfaZ4faQA5tJhnpK8//EwxxgbKwUlmGSBdOpD8EOZEVWWmpylDSceQ00tVBABosxLWSCVkEfOnjpV18n6NmWL7jjPe6g5rcUg1H9DU2zCTvHCmfF09qSJK6t49vW7UJVeMhk1hRELF9Q9cfwQgI2Hws3lBJKf1eoVMlvf3oNffbPUyETGIfmDDUV5nFwzsA3fDBFQm4aVQgAtgz4pddoUyJzbPwsmXkrqQvIsYt2yW8kxd140a/1PKXE4Ct+MgECDIk5fYg3gKADi5sVrM59d4CubdFfhURcFZu9vJ86GtcKH45dmMwPk8HUmWSE3dkF17CAi7y1yTNYGXu/oDd8h7aoGuTgFLBojlmq0g8IPShJNxErEdQM+QRVDm8VQGsS4F0raztUoISZK7Q9x3iPsOcd8h7jvEfYe4vynEbSxG3MYHhm03mtSwaoauN2sra/ZKjayt3qvVyepovLbSGBO69g2A8WTVSi7pF47h+tXpJgHwupgsWdPbTqm3Ur9fn1mvyHhXn+PQa1bt7nR1d7q67dOVkZ6uEnQeip8BCj8OQEKyzVa7fbCz3+/1Bgc7kI8YklAKm2S8ZbzNfntRCl72bEeYTtsSn08h1H07AefvETfmOF58cKxptvu7g2FrF4qz/CmoYAepfQi0WIT+CjWda5Z/WoETHYMBx+rDcHi4hZCo5uRSVXbEypS0Mi1+CiseYuWG94UCvemhBgloj3JZDRUSeLGd5BaVjpQzAlJwPypD+SgH69EbQ3i0EHov5iQjzdJ/6TG9pDqUyi0C3KXCVwPuIkrmlOtjaJQrIWgeI2cktBD+ojmMi8pR5wLynEoa/qXEsqhKIUApMelAgWRIIAA0j+TQ7VyNIhX16G8EvK5fh5FCQPN1MU9CuUKGikVLJSClwqCSelKgoXxBQDIrof+3KzXZ9//ynRq6yS0aur3LMqWwdJzx+BBA2qPshU9CECPOrLCGqKlzZR8puECJDfkM6HaDJQchyvh317NVr2evfzr9r9zcouyVRQZ9OtQFpFb11WuiveOf3lgXwqKqajfsu7b0c7WHIqlbMgPqG2QWQ1UH0woCgA7szWLlR8M9xzvpVpu9qa9T22jqFl0fkSb8Ncf19bG1oluE2KN1hoe4UYbqmQl2gmavbqp1YrDEo6pnL6T2iXdU0ZpwMFdkr4jAU3yvykNj2sbbThBGj1h1l1+CcphSDgUifGTWBex7JNqHpiEJIIDUzlBu1EnqicRzdd/tOROn4ksjPclPeSMQBtOpAHhVFxTO07v0PMJIsQBgYPQdwB3iMV4Va2JXwckm1U9sDeJRZXMoUd4DPgusm2lv2YAbb67N33477hsMgKPFm5roeqFzdBxVXdf6+nqDrtF6rT62rNoKNGqA9kY1m4zXIe2PG/ZqnT3alcahcDj0rGInrNw4YUzc6nqo8K93zP8Ak3CALvYzAAA=</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -95,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -103,6 +103,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -399,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,11 +422,6 @@
           <t>Real Estate Investment: Residential: Hebei</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Real Estate Investment: Residential: Hebei [SUM(Yes; Yes)+selected(310902301+310902301)]</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -443,11 +439,6 @@
           <t>Test</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -457,7 +448,6 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -475,11 +465,6 @@
           <t>Annual, ending "Dec" of each year</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Annual, ending "Dec" of each year</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -497,11 +482,6 @@
           <t>RMB mn</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>RMB mn</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -519,11 +499,6 @@
           <t>NRT SOURCE TEST</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>NRT SOURCE TEST</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -541,11 +516,6 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
@@ -559,9 +529,6 @@
       <c r="C8" s="3">
         <v>310902301</v>
       </c>
-      <c r="D8" s="3">
-        <v>310902301</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -579,11 +546,6 @@
           <t>SR4825032</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>SR4825032</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -593,19 +555,17 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>SUM(Yes; Yes)+selected(310902301+310902301)</t>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>ROLLSUM(1)</t>
         </is>
       </c>
     </row>
@@ -621,148 +581,64 @@
       <c r="C12" s="4">
         <v>35034</v>
       </c>
-      <c r="D12" s="4">
-        <v>35034</v>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" s="5">
-        <v>35765</v>
-      </c>
-      <c r="B13" s="6">
-        <v>3271.34</v>
-      </c>
-      <c r="C13" s="6">
-        <v>3271.34</v>
-      </c>
-      <c r="D13" s="6">
-        <v>6542.68</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5">
-        <v>36130</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5">
-        <v>36495</v>
-      </c>
-      <c r="B15" s="6">
-        <v>6384.48</v>
-      </c>
-      <c r="C15" s="6">
-        <v>6384.48</v>
-      </c>
-      <c r="D15" s="6">
-        <v>12768.96</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5">
-        <v>36861</v>
-      </c>
-      <c r="B16" s="6">
-        <v>7111.74</v>
-      </c>
-      <c r="C16" s="6">
-        <v>7111.74</v>
-      </c>
-      <c r="D16" s="6">
-        <v>14223.48</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5">
-        <v>37226</v>
-      </c>
-      <c r="B17" s="6">
-        <v>8354.02</v>
-      </c>
-      <c r="C17" s="6">
-        <v>8354.02</v>
-      </c>
-      <c r="D17" s="6">
-        <v>16708.04</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5">
-        <v>37591</v>
-      </c>
-      <c r="B18" s="6">
-        <v>10540.67</v>
-      </c>
-      <c r="C18" s="6">
-        <v>10540.67</v>
-      </c>
-      <c r="D18" s="6">
-        <v>21081.34</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5">
-        <v>37956</v>
-      </c>
-      <c r="B19" s="6">
-        <v>16421.36</v>
-      </c>
-      <c r="C19" s="6">
-        <v>16421.36</v>
-      </c>
-      <c r="D19" s="6">
-        <v>32842.72</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5">
-        <v>38322</v>
-      </c>
-      <c r="B20" s="6">
-        <v>22352.63</v>
-      </c>
-      <c r="C20" s="6">
-        <v>22352.63</v>
-      </c>
-      <c r="D20" s="6">
-        <v>44705.26</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5">
-        <v>38687</v>
-      </c>
-      <c r="B21" s="6">
-        <v>29205.22</v>
-      </c>
-      <c r="C21" s="6">
-        <v>29205.22</v>
-      </c>
-      <c r="D21" s="6">
-        <v>58410.44</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5">
+      <c r="A13" s="6">
         <v>39052</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B13" s="7">
         <v>37962.97</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C13" s="7">
         <v>37962.97</v>
-      </c>
-      <c r="D22" s="6">
-        <v>75925.94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>13</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>13</EndRow>
+          <EndCol>3</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{809921FE-47AD-4315-93BA-B27C6C5630EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_58.xlsx
+++ b/Testdata/TC_58.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>9jMAAB+LCAAAAAAAAAPtW1tv48YV/iuEnxKg8pCS7ZWNWQayZG+EypZhydl1XoIRObJZU6TKi229pUCLFGmKoig2RXpFn1IU6HbRJkC628t/Cdbe7VP/Qs9cSA4pam16XaQFHBgI59xm5syZc74ZzeJ3zieudkqD0PG9+0vGsr6kUc/ybcc7ur8UR+Oasbb0jom3zi3q7pGATGgEwhpoeeHGeejcXzqOoukGQmdnZ8tnjWU/OEJ1XTfQo53ewDqmE1JzvDAinkWXUi37aq0lE7ftyQ6NiE0iIjTvL3UH3eU2dawO0HaIR45osLwZh45Hw3DLi5zIoSHTDCiJaLuz856YmFlfXls2MJqjZ5KbsePaQi4nKehSDrqlQ2dCzbpe12t6s1ZfGerNjdW1Df3e8npDfz9RTAVxj4TRgAanjsUJg4hMplxdb9ZX9Obqmn4Po1IhsJU5wMR9196np05I7TZ13bCSR5BcwJYVwayrOVPHSNGVhm4+hAcBmR4PncilVdW3/YBa4Kgb9b1Lz/qB9N9w2gPu8NgJolmHzCrbOghp0J8yb1RTNXHH96KWS4PoYAqLSm1Yc2CYURBTjBYwM6WOE1rw7Xgxtc0xcUNVKcfED/3gJJwSi+7ChkXMxpnn+sSGyIqcMHKsMDMwx8F7gT8Fk9D7pu/a22BWDrGEkZrueuBj1u+m758UreeZmAcBDwdY1AmJEvE5Oh4c+2d9z50N4lFoBc6I2p3NRLqUh9nWk9rtOIz8CYwiI2FBUygz+A+2WpGMO9RyJsTdc8GLodkAKzkCbsWRP3aitu/GEy91Z4GKH8KMhvQ8nWHaxn1YXY853fe6XiIv3FzKyivs+2dpn/MM7gSF3AqtJMjmGUXhDtCS5Zvn8BVhs9x2XKgE6loo1HxUDI4pjUpDQnAwS3rbrLaYmzPWJ0YZBUNkQngDFdKmvlaDv7o+1PUN/gc9p2y85dmZnFGvNQxFLmHi3XjSH8EWPuVzMg3gFUgYZuFuusQ7AepDJzrebSWjL+FgMeeF8vM8DJt16pIZJ6d+UWm461lubFORA7remAclG5tYxoVsPEfqwa42MfFmw9kUcm7obETwcX8JqvBGGAVQ55dMy4+9KJixZIGRFL1KJ4xHHu+AuNfWGQf0uzHAi9l27Flt375+b7bwzoHnRNcfoR8HIgNeX4V7j+XCOOxQllV4nr+2vlVlTmFQSXzi0YnvOdb1vQ1OZqO3bzCRMNlVigZaEFsdOiaxCwAmgvJzlFWWAhm3wpOijErCB4GbJAeTwcMQ8KFlT5YtKKwMAy1b/oQREMCyhwOMVHmGDiy65R31iHcUQ/1NN2CRnqYmVjqGAfFCNp203BayVLkQTja0gAGm2OX9mHtM7HIfuBgV5PCQTqZ+QNwdcIyzLddHYgko0zskOpYtSPsutRIno0w11cqPLBn4VWI8f4tpsJ0h80mByIXYXAQSzWQyGmaz3IH4ddvEdUaBSD9JlSvjwYJlwClJVGxyFUFUsgZwGoHC9G06YxA1a0g6D1kjYYgAZhnHHOyvNOureqMORZ+1MZ/xPiWutgVRH1Gt653SMJqA2oa2T0PHhi+HuBvau3REHagW3EUyX1fWVvXwdpIQ+VBaMN48JS8ApfjIgXw7L5hyMgXzkJLAnSmCYqo93wK5yx/+8+JXT188+/zy48evvvz+v//2ixd//8nFkx/Ax+Wf/3Lxyc/FNIUwHpKRS/mAhpvNpt5YgThLSZg5F3HUaMdWxGmHhxwspm0sTze80d7qth/0Nnk+SYmJusi9iB2cZn6cNQdiErwjvqQoiQQhYg6T/CTbOa6Sy012kDmleWmVv0hR+OLl889fPv/jQm3psAyUGOvrqwyL6MZVmMUw5uRSzMIOiOJYII+fxkpNX63V64pwQQbvwykaTgGpn7q22TD0db3e0I00l9tpIJcJFVnS0pAcoYKeILUFjkhDQG0nTB74Q9giKVtsBaUhQ/TLH7360+OclPSupOStwOB4vWedoaTBTe/uD7VB/2C/vaUNtwYsTjKeIieMv0ZY9p7up1xQeV5M3G9p1GM3J9oSHBaWNH+sUWIdazPYico+zAVbGVV0dEOTxVE+CPx4KlZEUcioJZJpNinVKMk1nMf9OZd0MlaJuBjrxV+/KFOQE+lkyM/c39nUJl4al5yGcxxBUvhy1372jxdfffTi2bPLpz+9+Op7OQuyn/TIDHEOu0ltpmEPKU/WmwIFPxxwZ57oHyj1RRLZiWPPd7woNI01ftiQLQyqBrPG/4+7Eyh53DD3F9ALFPwuCbfOI7mxzV2M8gQY55RAtfWzY1lKEDk88+u/fv2by19+cfnp01cf/eHi499ffPLpy+e/ffXkd2LXXT5+evnjJzLLFwsBHws77AkQqPGrA0tju1FjtVv7+sOfaZ4faQA5tJhnpK8//EwxxgbKwUlmGSBdOpD8EOZEVWWmpylDSceQ00tVBABosxLWSCVkEfOnjpV18n6NmWL7jjPe6g5rcUg1H9DU2zCTvHCmfF09qSJK6t49vW7UJVeMhk1hRELF9Q9cfwQgI2Hws3lBJKf1eoVMlvf3oNffbPUyETGIfmDDUV5nFwzsA3fDBFQm4aVQgAtgz4pddoUyJzbPwsmXkrqQvIsYt2yW8kxd140a/1PKXE4Ct+MgECDIk5fYg3gKADi5sVrM59d4CubdFfhURcFZu9vJ86GtcKH45dmMwPk8HUmWSE3dkF17CAi7y1yTNYGXu/oDd8h7aoGuTgFLBojlmq0g8IPShJNxErEdQM+QRVDm8VQGsS4F0raztUoISZK7Q9x3iPsOcd8h7jvEfYe4vynEbSxG3MYHhm03mtSwaoauN2sra/ZKjayt3qvVyepovLbSGBO69g2A8WTVSi7pF47h+tXpJgHwupgsWdPbTqm3Ur9fn1mvyHhXn+PQa1bt7nR1d7q67dOVkZ6uEnQeip8BCj8OQEKyzVa7fbCz3+/1Bgc7kI8YklAKm2S8ZbzNfntRCl72bEeYTtsSn08h1H07AefvETfmOF58cKxptvu7g2FrF4qz/CmoYAepfQi0WIT+CjWda5Z/WoETHYMBx+rDcHi4hZCo5uRSVXbEypS0Mi1+CiseYuWG94UCvemhBgloj3JZDRUSeLGd5BaVjpQzAlJwPypD+SgH69EbQ3i0EHov5iQjzdJ/6TG9pDqUyi0C3KXCVwPuIkrmlOtjaJQrIWgeI2cktBD+ojmMi8pR5wLynEoa/qXEsqhKIUApMelAgWRIIAA0j+TQ7VyNIhX16G8EvK5fh5FCQPN1MU9CuUKGikVLJSClwqCSelKgoXxBQDIrof+3KzXZ9//ynRq6yS0aur3LMqWwdJzx+BBA2qPshU9CECPOrLCGqKlzZR8puECJDfkM6HaDJQchyvh317NVr2evfzr9r9zcouyVRQZ9OtQFpFb11WuiveOf3lgXwqKqajfsu7b0c7WHIqlbMgPqG2QWQ1UH0woCgA7szWLlR8M9xzvpVpu9qa9T22jqFl0fkSb8Ncf19bG1oluE2KN1hoe4UYbqmQl2gmavbqp1YrDEo6pnL6T2iXdU0ZpwMFdkr4jAU3yvykNj2sbbThBGj1h1l1+CcphSDgUifGTWBex7JNqHpiEJIIDUzlBu1EnqicRzdd/tOROn4ksjPclPeSMQBtOpAHhVFxTO07v0PMJIsQBgYPQdwB3iMV4Va2JXwckm1U9sDeJRZXMoUd4DPgusm2lv2YAbb67N33477hsMgKPFm5roeqFzdBxVXdf6+nqDrtF6rT62rNoKNGqA9kY1m4zXIe2PG/ZqnT3alcahcDj0rGInrNw4YUzc6nqo8K93zP8Ak3CALvYzAAA=</t>
+          <t>Hz8AAB+LCAAAAAAAAAPtW1tv28gV/iuEnhJs5SGl+NoJF7IkZ4VaViDJm3iLYkGRI5sNRaq82NbbFmixxXaLoiiyxfaKPm1RoGnQ7gLbpJf/soid9Kl/oWcuJIcUFZuOgzYLBYbDOZe5nDlzznfGJH77dOIox8QPbM+9XdFW1IpCXNOzbPfwdiUKx1VtrfK2jtunJnHuGr4xISEIK6DlBlungX27chSG0y2ETk5OVk7qK55/iGqqqqH73d2BeUQmRtV2g9BwTVJJtKyLtSo6blqTLgkNywgNrnm70hl0VprENltA6xqucUj8le0osF0SBG03tEObBFTTJ0ZImq3uu3xhem1lbUXDaI6eSm5HtmNxuYwkpws5GJYM7QnRa6q2UVU3qnVtqKlb9dWt1fqKVtt4L1ZMBPGuEYQD4h/bJiMMQmMyZerqRl3T1Prqah2jQiHoKzWAjnuO1SfHdkCsJnGcoJRFkNjAhhnCqssZU8VI0hUdXX0Kd3xjejS0Q4eUm0a/u61MXDGXtBMd73g+McF+V5rSHjnp+cKsw+kucIdHth/OWsasdF/7AfF7U2qkcqo6bnlu2HCIH+5PYa+JBa4ADD30I4LRAmaq1LIDE55tNyKWPjacQFbKMPE9z38QTA2T7ME5RrSPE9fxDAscLrSD0DaDtIM5Dr7re1PoEkbf9hxrB7oVUyxgJF13XLAxHXfb8x7ke88yMdtWtsGwqRMjjMXn6Hhw5J30XGc2iEaB6dsjYrW2Y+lCHqYnUmg3oyD0JjCLlIQ5TaLM4B+cwDwZt4hpTwznrgNWDHQ4u1kCbkShN7bDpudEEzcxZ46K78GKhuQ0WWHSxj3YXZca3XM7bizPzVzIyir0vZNkzHkGM4JEbgRm7GTzjLxwC2jx9s1z2I7QVe7YDiQIeS8katYrBkeEhIUuwTmYxsIdmnL07RkdE6OUgsEzwb2Bqmubm+tVVYOfoapusR8YOWHjtmuxB0gwa1WtRoN2Khcz8V406Y3gCB+zNeka8HIkDKtwth3DfQDUe3Z4tNeIZ1/AwXzNC+XneRgO69QxZoyc2EWm4Y5rOpFFeAzouGPmlHRufBsXsvEcaRdOtY4NdzacTSEUB/ZWCA+3K5Cct4LQh/Rf0U0vckN/RoMFRkL0Ip0gGrlsAMO5tM7YJ9+LAHXMdiLXbHrW5UezuHX2XTu8/Ay9yOcR8PIqzHo0FkZBi9CowuL8pfXNMmsK/FLiE5dMPNc2L29tMDKdvXWFhQTxqZI00ALfapGxETmAa0JIP4dpZsmRcSN4kJeRSXjfd+LgoFPUGABsNK3JigmJlUKjFdObUAICtHZvgJEsT9GBSdru4a7hHkaQf5MDmKcnoYmmjqFvuAFdTpJuc1GqWAjHB5rDAJ2f8l7ELMZPuQdcjHJyeEgmU883nC4Yxt4R+yOwBKTprhEeiRaEfYeYsZFRqppoZWcWT/wiMRa/+TLoyRDxJEdkQnQtHKCmMikN01V2wX+dpuHYI5+HnzjLFfFgw1LgFAcquriSICreAyhSIDF9i8wock0bgs5cVosZ3IFpxNEH/VsbtVW1XoOkT9uYrbhPDEdpg9eHROm4xyQIJ6C2pfRJYFvwZBvOlvIOGREbsgUzkYjXpbVlPbwTB0Q2lQbMN0vJCkAqPrQh3s4LJpxUQT8ghu/MJEG+1F3PBLnzH/3r7NePnz357Pyjhy+++MF//v7LZ//46dmjH8LD+V/+evbxL/gyuTAeGiOHsAkNtzc21Pot8LOEhKlxEUONVmSGjHZwwMBi0sai6GGNZrvTvLO7zeJJQozVeexFtJ6aeVHaHPBFsIHYlqLYE7iIPozjk2hnuFIs12l9c0yy0jJ/kSK3xfOnnz1/+qeF2sJgGcyySrHIxZhF0+bkEsxC60ZeFsRV6a2qulqt1SThnAzuQ3ENVUBip46l1zV1U63VVS2J5VbiyEVCeZboaWgcopweJzU5jkhcQG7HTOb4QzgiCZsfBakhXPSLH7/488OMlLCuoGR7gcmxfE8HQ3GDdb3XHyqD3n6/2VaG7QH1k5QnyfHOXyIsRk/OU8apXDcynG8oxKUXKkoFioWK4o0VYphHygxOonQOM85WROUDXbHL/Czv+F405TsiKaTUAskkmhRqFMQaxmP2nAs6KatAnM/17G+fFymIhbRS5JfcDcg0nOFwksQXp/bTfz778sNnT56cP/7Z2Zffz/QgxklKZvBzOE1yM3F7CHki3+Qo+N6AGfOB+r6UXwSRVhx3PdsNA11bY8WGaGFQ1Whv7H/cmUDKYx0zewE9R8HvGEH7NBQHW9/DKEuAeU4NyLZeWpYlBB7DU7v++ze/Pf/V5+efPH7x4R/PPvrD2cefPH/6uxePfs9P3fnDx+c/eSSifD4RsLnQYo+DQIVdHZgKPY0Kzd3KVx/8XHG9UAHIoUQsIn31wadSZ3SiDJykPQOkSyaSncKcqKxM9RRpKskcMnqJCgcATZrC6omESGLe1DbTQd6r0q7ouWOMG51hNQqI4gGaugkryQqnypfVEyo8pd5dV2taTXD5bOgSRkYgmf6O440AZMQMVpvnRDJaL1dIZdl4d3Z7243dVIRPoudbUMqr9IKBPuAYUtKU0gniVuxqEgW4APzMyKHXKXNi86ykZymMIXEvMW5YNPzpqsoK/2x+zEjgZuT7HBC54p57EE0BDMe3V4v57EpPwr97HKvKiDhtd1pZPrQlLiTCLJsSGJ+FJsHiYaoT0CsQDmf3qGnSJvAy14BgDnGVzZHWMeBKH9G40/Z9zy8MPiknFusCkoaIglKLJzJsTznqttK9iglxwFui7yX6XqLvJfpeou8l+v5foW9tMfrWluh7ib6/VuhbW6LvNwV9a19/9K18e7DfvXFAgm8q8OvmWwGhf6Mg1o0EtbyVPN38zqth9bJjvSHI/iomXNYByzpgWQcs64BlHSCj/triOqD2/ua6Ya2ro1HVGNfV6q01a626SchGdW18a1Tf3NCIpVmFJcL6ay0R4l0reHFn4Rwun8uu4gAv88mCPb3ukHot93gvj6wXRLyL/7aDXrJry5pvWfNdd81Xm6/5+KtBuReGICBZeqPV6u7vDtp9CEYURkhZrQTQpG9rSekwff+fD5y0RR1BTkPIh3ER8a7hRGDU/n4bI/7MwKje7O0Nho09yN7i/bFcV0U924eu55OuHQSwo69jAP6GX/t06kM1Jt6uyo4jFUnyYGDiTnuwaCgkm4xD43zFJVGTjU2DbcO3wyPowDZ7U8LfmAogKs/JJaq0sk2VlCItVvzm/4onopvHFchVa0nEqx6UCeEol63y7TiQynQklU9IKnJQUUmDMjUMeuV6BS2sMxZz4pmmua7wdqQgFRbKLaouCoUvri7yJQGjXL5gQJl8ieYLgpSEFmJ9NAfoUTHEXkCeU0ncv5BY5FUJ3ikkxgNI+BNxuIPmYSu6nndDkAzx1FdCmZcHHUgioHkQkCWhTNZG+QwtE5CUTlFB8szRUDb7IRGV0Jt8qynG/n++1kRXuchE13dfKSWZlj0eHwA6vZ9+7hAT+IzTXmiD59c5vIMkQCT5hvgm4nqdpRx8KupgeYVe9gr98nX7a7ldFw/8q4bYhVuw8WG5bxjTjOt1veMr64JblFXtBD3HEnYu91p9Ypa0A/lDTupDr/odJ/fDhu8D+qDffZX+8DL+KKNvuIclZ8OXwhTp1w0wegwObD8I79MsK5445SChHHBkdl8Xn+/e5+0DvaZxAggguXeUmWZ8qkP+Oa3n7NoTu+QnD2p89LOdgC2nUw60OuU8hRbxe1DEYST1AEl59F2IcfyroDK9cYeFCiPRpx+wBfbhUVh2Yusjg1hkpFbNEalVb1nqBj3/9aqmwW/DrNVUdZV+/iY6h6Bik5OSg6B4w6Sa7b+dRLaxHz8AAA==</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -95,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -103,7 +103,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -400,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,6 +421,11 @@
           <t>Real Estate Investment: Residential: Hebei</t>
         </is>
       </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Real Estate Investment: Residential: Hebei [SUM(Yes; Yes)+selected(310902301+310902301)]</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -439,6 +443,11 @@
           <t>Test</t>
         </is>
       </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -448,6 +457,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -465,6 +475,11 @@
           <t>Annual, ending "Dec" of each year</t>
         </is>
       </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Annual, ending "Dec" of each year</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -482,6 +497,11 @@
           <t>RMB mn</t>
         </is>
       </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>RMB mn</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -499,6 +519,11 @@
           <t>NRT SOURCE TEST</t>
         </is>
       </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>NRT SOURCE TEST</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -516,6 +541,11 @@
           <t>Active</t>
         </is>
       </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
@@ -529,6 +559,9 @@
       <c r="C8" s="3">
         <v>310902301</v>
       </c>
+      <c r="D8" s="3">
+        <v>310902301</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -546,6 +579,11 @@
           <t>SR4825032</t>
         </is>
       </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>SR4825032</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -555,17 +593,19 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>ROLLSUM(1)</t>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>SUM(Yes; Yes)+selected(310902301+310902301)</t>
         </is>
       </c>
     </row>
@@ -581,64 +621,148 @@
       <c r="C12" s="4">
         <v>35034</v>
       </c>
+      <c r="D12" s="4">
+        <v>35034</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
+        <v>35765</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3271.34</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3271.34</v>
+      </c>
+      <c r="D13" s="6">
+        <v>6542.68</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5">
+        <v>36130</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5">
+        <v>36495</v>
+      </c>
+      <c r="B15" s="6">
+        <v>6384.48</v>
+      </c>
+      <c r="C15" s="6">
+        <v>6384.48</v>
+      </c>
+      <c r="D15" s="6">
+        <v>12768.96</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5">
+        <v>36861</v>
+      </c>
+      <c r="B16" s="6">
+        <v>7111.74</v>
+      </c>
+      <c r="C16" s="6">
+        <v>7111.74</v>
+      </c>
+      <c r="D16" s="6">
+        <v>14223.48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5">
+        <v>37226</v>
+      </c>
+      <c r="B17" s="6">
+        <v>8354.02</v>
+      </c>
+      <c r="C17" s="6">
+        <v>8354.02</v>
+      </c>
+      <c r="D17" s="6">
+        <v>16708.04</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5">
+        <v>37591</v>
+      </c>
+      <c r="B18" s="6">
+        <v>10540.67</v>
+      </c>
+      <c r="C18" s="6">
+        <v>10540.67</v>
+      </c>
+      <c r="D18" s="6">
+        <v>21081.34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5">
+        <v>37956</v>
+      </c>
+      <c r="B19" s="6">
+        <v>16421.36</v>
+      </c>
+      <c r="C19" s="6">
+        <v>16421.36</v>
+      </c>
+      <c r="D19" s="6">
+        <v>32842.72</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5">
+        <v>38322</v>
+      </c>
+      <c r="B20" s="6">
+        <v>22352.63</v>
+      </c>
+      <c r="C20" s="6">
+        <v>22352.63</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44705.26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5">
+        <v>38687</v>
+      </c>
+      <c r="B21" s="6">
+        <v>29205.22</v>
+      </c>
+      <c r="C21" s="6">
+        <v>29205.22</v>
+      </c>
+      <c r="D21" s="6">
+        <v>58410.44</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5">
         <v>39052</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B22" s="6">
         <v>37962.97</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C22" s="6">
         <v>37962.97</v>
+      </c>
+      <c r="D22" s="6">
+        <v>75925.94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>13</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>13</EndRow>
-          <EndCol>3</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{809921FE-47AD-4315-93BA-B27C6C5630EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>